--- a/BioInfor_Tools_Datasets_Collections.xlsx
+++ b/BioInfor_Tools_Datasets_Collections.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zjuintl-my.sharepoint.com/personal/chentao_20_intl_zju_edu_cn/Documents/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - International Campus, Zhejiang University\桌面\Code_collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{86B9FEAA-9ACE-4EF7-B489-F591891DDC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDC444F0-C8CD-47BA-BE24-CA7ADD0A8489}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903D0E4B-B7BE-425A-B1F6-FA232EE625CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,6 +528,25 @@
   </si>
   <si>
     <t>https://github.com/wu-yc/scMetabolism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tiger.canceromics.org/</t>
+  </si>
+  <si>
+    <t>免疫治疗研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immunotherapy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen Z, Luo Z, Zhang D, Li H, Liu X, Zhu K, Zhang H, Wang Z, Zhou P, Ren J, Zhao A, Zuo Z. TIGER: A Web Portal of Tumor Immunotherapy Gene Expression Resource. Genomics Proteomics Bioinformatics. 2022 Aug 29:S1672-0229(22)00099-7. doi: 10.1016/j.gpb.2022.08.004. Epub ahead of print. PMID: 36049666.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -932,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="A10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1396,11 +1415,29 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="F28" s="8"/>
+      <c r="A28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
     <row r="31" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/BioInfor_Tools_Datasets_Collections.xlsx
+++ b/BioInfor_Tools_Datasets_Collections.xlsx
@@ -5,27 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - International Campus, Zhejiang University\桌面\Code_collections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zjuintl-my.sharepoint.com/personal/chentao_20_intl_zju_edu_cn/Documents/桌面/Code_collections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903D0E4B-B7BE-425A-B1F6-FA232EE625CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{903D0E4B-B7BE-425A-B1F6-FA232EE625CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C47A339F-CBBE-41B3-B279-3813DF3BBC1F}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="oqMfmAwv2M1e4L/QYisi42udIM2rVzRjZIBV6ZHkOqUup7HweZr91wv2Qp9K+5rX03n79CWFmv1KvY7w+BcouA==" workbookSaltValue="6VleTgDleuj6iEwsRB+Yaw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="143">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -547,6 +559,200 @@
   </si>
   <si>
     <t>Chen Z, Luo Z, Zhang D, Li H, Liu X, Zhu K, Zhang H, Wang Z, Zhou P, Ren J, Zhao A, Zuo Z. TIGER: A Web Portal of Tumor Immunotherapy Gene Expression Resource. Genomics Proteomics Bioinformatics. 2022 Aug 29:S1672-0229(22)00099-7. doi: 10.1016/j.gpb.2022.08.004. Epub ahead of print. PMID: 36049666.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PESSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://smuonco.shinyapps.io/PESSA/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pathway Enrichment Score-based Survival Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通路富集预后分析可视化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://smuonco.shinyapps.io/PanCanSurvPlot/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PanCanSurPlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lin, A., Yang, H., Shi, Y., Cheng, Q., Liu, Z., Zhang, J., &amp; Luo, P. (2022). PanCanSurvPlot: A Large-scale Pan-cancer Survival Analysis Web Application. BioRxiv, 2022.12.25.521884. https://doi.org/10.1101/2022.12.25.521884</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pan-cancer transcriptome survival analysis and visualization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CADSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAMOIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药物敏感性分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> Comprehensive Analysis of Drug Sensitivity in Pan-cancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  https://smuonco.shinyapps.io/CADSP/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探究目的基因对于肿瘤预后的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Onlinemeta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yonglin Yi, Anqi Lin, Chaozheng Zhou, Zhang Jian, Shixiang Wang, Peng Luo. Onlinemeta: A Web Server For Meta-Analysis Based On R-shiny. bioRxiv. doi: https://doi.org/10.1101/2022.04.13.488126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://camoip.net/    backup: 220.189.241.246:13838/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫治疗预后的生物标志物的筛选和后续分子机制的探索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lin A, Qi C, Wei T, Li M, Cheng Q, Liu Z, Luo P, Zhang J. CAMOIP: a web server for comprehensive analysis on multi-omics of immunotherapy in pan-cancer. Brief Bioinform. 2022 May 13;23(3):bbac129. doi: 10.1093/bib/bbac129. PMID: 35395670.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprehensive analysis on multi-omics of immunotherapy in pan-cancer </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImmuNexUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pan-cancer Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常好用的冷门泛癌分析工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://guotosky.vip:13838/GTBA/</t>
+  </si>
+  <si>
+    <t>ProjecTILs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/carmonalab/ProjecTILs</t>
+  </si>
+  <si>
+    <t>Andreatta M, Corria-Osorio J, Müller S, Cubas R, Coukos G, Carmona SJ. Interpretation of T cell states from single-cell transcriptomics data using reference atlases. Nat Commun. 2021 May 20;12(1):2965. doi: 10.1038/s41467-021-23324-4. PMID: 34017005; PMCID: PMC8137700.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R package/Shared scRNA datasets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内置多种免疫细胞单细胞图谱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single cell RNAseq immune cell atlas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPSAdb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://guotosky.vip:13838/GPSA/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全面的人类扰动数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shipeng Guo, Zhougeng Xu, Xiangjun Dong, Dongjie Hu, Yanshuang Jiang, Qunxian Wang, Jie Zhang, Qian Zhou, Shengchun Liu, Weihong Song, GPSAdb: a comprehensive web resource for interactive exploration of genetic perturbation RNA-seq datasets, Nucleic Acids Research, 2022;gkac1066, https://doi.org/10.1093/nar/gkac1066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Genetic perturbation similarity analysis </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在免疫条件以及细胞类型背景下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> eQTLs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效应的动态变化</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immune Cell Gene Expression Atlas in different immune-diseases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ota M, Nagafuchi Y, Hatano H, Ishigaki K, Terao C, Takeshima Y, Yanaoka H, Kobayashi S, Okubo M, Shirai H, Sugimori Y, Maeda J, Nakano M, Yamada S, Yoshida R, Tsuchiya H, Tsuchida Y, Akizuki S, Yoshifuji H, Ohmura K, Mimori T, Yoshida K, Kurosaka D, Okada M, Setoguchi K, Kaneko H, Ban N, Yabuki N, Matsuki K, Mutoh H, Oyama S, Okazaki M, Tsunoda H, Iwasaki Y, Sumitomo S, Shoda H, Kochi Y, Okada Y, Yamamoto K, Okamura T, Fujio K. Dynamic landscape of immune cell-specific gene regulation in immune-mediated diseases. Cell. 2021 May 27;184(11):3006-3021.e17. doi: 10.1016/j.cell.2021.03.056. Epub 2021 May 1. PMID: 33930287.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.immunexut.org/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://smuonco.shinyapps.io/Onlinemeta/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -949,634 +1155,902 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="A10:G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="72.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="43.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="173.44140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="20.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="72.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="43.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="241.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="49.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="G27" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BioInfor_Tools_Datasets_Collections.xlsx
+++ b/BioInfor_Tools_Datasets_Collections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zjuintl-my.sharepoint.com/personal/chentao_20_intl_zju_edu_cn/Documents/桌面/Code_collections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{903D0E4B-B7BE-425A-B1F6-FA232EE625CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C47A339F-CBBE-41B3-B279-3813DF3BBC1F}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{903D0E4B-B7BE-425A-B1F6-FA232EE625CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CE741D3-5435-43BB-B58F-517E9AD6628C}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="oqMfmAwv2M1e4L/QYisi42udIM2rVzRjZIBV6ZHkOqUup7HweZr91wv2Qp9K+5rX03n79CWFmv1KvY7w+BcouA==" workbookSaltValue="6VleTgDleuj6iEwsRB+Yaw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="166">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -753,6 +753,136 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CellPhoneDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iTALK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CellCall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cellchat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ShellyCoder/cellcall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细胞通讯</t>
+  </si>
+  <si>
+    <t>细胞通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NicheNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jin S, Guerrero-Juarez CF, Zhang L, Chang I, Ramos R, Kuan CH, Myung P, Plikus MV, Nie Q. Inference and analysis of cell-cell communication using CellChat. Nat Commun. 2021 Feb 17;12(1):1088. doi: 10.1038/s41467-021-21246-9. PMID: 33597522; PMCID: PMC7889871.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Efremova M, Vento-Tormo M, Teichmann SA, Vento-Tormo R. CellPhoneDB: inferring cell-cell communication from combined expression of multi-subunit ligand-receptor complexes. Nat Protoc. 2020 Apr;15(4):1484-1506. doi: 10.1038/s41596-020-0292-x. Epub 2020 Feb 26. PMID: 32103204.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/sqjin/CellChat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cell interaction</t>
+  </si>
+  <si>
+    <t>Cell interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Celltalker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cell interaction + Transcriptional factors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/arc85/celltalker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCSCXenaTools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wang et al., (2019). The UCSCXenaTools R package: a toolkit for accessing genomics data from UCSC Xena platform, from cancer multi-omics to single-cell RNA-seq. Journal of Open Source Software, 4(40), 1627, https://doi.org/10.21105/joss.01627. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TCGA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据下载</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download TCGA Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOBR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一站式免疫分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://iobr.github.io/IOBR/IOBR-VIGNETTE.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,6 +1020,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1157,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1917,14 +2051,157 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
     <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
